--- a/Output_testing/R1_201907/Country/HKD/MN/CROATIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CROATIA_201907_HKD_MN.xlsx
@@ -544,17 +544,25 @@
       <c r="C7" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.323299</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.095871</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.3435</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.307765</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-70.34602643373471</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/CROATIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CROATIA_201907_HKD_MN.xlsx
@@ -818,136 +818,451 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>242.049868</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>65.35670358201428</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>277.439373</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>66.49665138127044</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>384.699002</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>70.20251629902454</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>222.066998</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>71.98740377482839</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-0.5731602511937273</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>27.621037</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.458049627347241</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>36.775615</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.814377078291697</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>42.473198</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>7.750800910231362</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>12.35396</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>4.004780155302856</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-33.79104516967024</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1.228656</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.2242135862517634</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>9.81732</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.182478194381221</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>699.0291831073954</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>21.659766</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.848426680892844</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>21.282521</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.100993287825687</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>19.475089</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.553948010885283</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>9.242699999999999</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.996203771213255</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-24.64896184535896</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2.527814</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.6825436083628263</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5.522127</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.32354305025805</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>10.65109</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.943684063228678</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>5.621328</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.822264506348434</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>119.6481614478037</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.983544</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.5355834246928113</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.065346</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.4950219987114136</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>4.471384</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.815968865287562</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>4.566678</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.48037887689924</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>203.7213308281928</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.146054</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.5794632994759413</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.949747</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.4673152376994375</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>4.664315</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.8511762393687848</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>4.261882</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.381573233023455</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>34.30983255871411</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.692809</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.3089154138581192</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>4.261621</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.381488624718059</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>17.634559</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>4.761566923732188</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>15.862368</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.801891359440969</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>15.764826</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.876873733652904</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>4.169274</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.351552520586125</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-36.93211624905533</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.913204</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.7866040658280313</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>3.341568</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.8009068069902576</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>5.010519</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9143539232890243</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>3.198119</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.036733444619945</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-4.001903080949976</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>51.816168</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>13.99105878765385</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>52.984409</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>12.69929979951205</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>57.853746</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>10.55754895492197</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>28.920474</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.375142898079014</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-13.62747633388335</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1294,591 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>82.78914106542329</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>11.02212518195051</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>11.36906405861615</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-7.583000977258925</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.139811753206784</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>15.3278885168612</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>3.502672493623381</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>10.66876173449346</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>34.83117939731514</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.422416302765648</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.339122382337173</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-13.48395625525778</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>83.08841041883829</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>5.541821823074756</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>86.55545851528385</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>43.93403636136058</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.3650739013883239</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>4.0173337993622</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.08568229409927</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1910,451 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>242.049868</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>65.41380660146875</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>277.439373</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>66.5119347298958</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>384.699002</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>70.2465498144995</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>222.066998</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>72.05929596807846</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-0.5731602511937273</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>27.621037</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.464565824303662</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>36.775615</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>8.816402942677417</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>42.473198</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>7.755662488274666</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>12.35396</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>4.008779638736786</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-33.79104516967024</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1.228656</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.2243542209888127</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>9.81732</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.185656463430627</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>699.0291831073954</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>21.659766</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.853536528915059</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>21.282521</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.10216568157987</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>19.475089</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.55617717349917</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>9.242699999999999</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.999196012206005</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-24.64896184535896</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2.527814</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.6831399557734323</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>5.522127</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.323847248581388</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>10.65109</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.944903211014095</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>5.621328</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.824084360728137</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>119.6481614478037</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.983544</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.5360513710402178</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.065346</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.4951357727680973</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>4.471384</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.8164806699856114</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>4.566678</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.481857297827355</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>203.7213308281928</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.142544</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.5790210092208654</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.949747</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4674226437348897</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>4.664315</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.8517101273842589</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>4.261882</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.382952978988018</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>34.30983255871411</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.692809</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.3091091765944667</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>4.261621</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.382868286186219</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>17.634559</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.765727167957762</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>15.862368</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.802765172330417</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>15.764826</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.878678211195144</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>4.169274</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.352902285543637</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-36.93211624905533</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>2.878712</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.7779698934986707</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>3.308175</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.7930854128446762</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>5.002198</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.913408012919643</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>3.19092</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.035432778221557</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-3.978160276535392</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>51.530871</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>13.92618164782158</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>52.921931</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>12.68724039558743</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>57.518567</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>10.50296689364462</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>28.619908</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.2869739300532</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-13.66085197886826</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2386,449 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1.02378</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>1.893055265608904</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>25.71098</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>6.055853378656995</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>7.950008</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>2.193331365609001</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>15.662328</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>17.89908930604837</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>213.1896847532488</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.06138959035946748</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>6.090299</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>1.680255393785406</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>14.661798</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>16.75567206798641</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>2.870793</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>5.308337538458637</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>319.994915</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>75.37022265023768</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>183.924652</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>50.74305687998304</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>12.889972</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>14.73080885424331</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-92.79705513469523</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>9.447179999999999</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>17.46862982687211</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>13.305884</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.134010550255885</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>9.902107000000001</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.731896857049256</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>8.252132</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>9.430631744738047</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>26.46321514861643</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.6147520295084229</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>22.40957</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>5.27825350098481</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>70.291096</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>19.39264282247683</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>5.069708</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.79372084709169</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-91.08137800048213</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>7.751584</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>14.33333031316272</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>12.384031</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.916881269120934</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>9.271058</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.557796458038816</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>4.346746</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.967511524768766</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>3.579652212247031</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>5.96461</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>11.02906519740914</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1.825497</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.4299696929163419</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>4.738546</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.307319636556475</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>4.224121</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.827374258702433</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>18.09750481434844</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.1268915436394005</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>21.570167</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>5.95100329993683</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>3.490262</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.988711718941591</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-53.99488208415748</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FURSKINS, TANNED OR DRESSED, OTHER THAN THOSE OF ITEMS 848 31 AND 848 32</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>0.936371</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.731428678147136</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0.922396</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.2172571770138554</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.918429</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.529276259645765</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>2.427475</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.774146462339428</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>93.37191517835805</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>3.851552</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>7.121843359282762</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>4.408713</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.038409252256391</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>3.54309</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.9775047305833647</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>2.189641</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.502347020646297</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-15.93981071455581</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>21.800673</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>40.3112766575513</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>23.425364</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>5.517509240241715</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>43.263244</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>11.93591629633522</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>14.289308</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>16.32998619449366</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-56.1075952312417</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
